--- a/medicine/Handicap/Journée_internationale_de_sensibilisation_au_bégaiement/Journée_internationale_de_sensibilisation_au_bégaiement.xlsx
+++ b/medicine/Handicap/Journée_internationale_de_sensibilisation_au_bégaiement/Journée_internationale_de_sensibilisation_au_bégaiement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_sensibilisation_au_b%C3%A9gaiement</t>
+          <t>Journée_internationale_de_sensibilisation_au_bégaiement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La journée internationale de sensibilisation au bégaiement (International Stuttering Awareness Day, ISAD) est une journée internationale qui a été fondée le 22 octobre 1998[1] et se tient à la même date à chaque année. L'objectif de la journée est de sensibiliser le public au bégaiement, qui toucherait à peu près 1 % de la population mondiale[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La journée internationale de sensibilisation au bégaiement (International Stuttering Awareness Day, ISAD) est une journée internationale qui a été fondée le 22 octobre 1998 et se tient à la même date à chaque année. L'objectif de la journée est de sensibiliser le public au bégaiement, qui toucherait à peu près 1 % de la population mondiale,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_sensibilisation_au_b%C3%A9gaiement</t>
+          <t>Journée_internationale_de_sensibilisation_au_bégaiement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ISAD est organisée par trois organismes[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ISAD est organisée par trois organismes :
 L'European League of Stuttering Associations (en)
 L'International Fluency Association
 L'International Stuttering Association (en)</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_sensibilisation_au_b%C3%A9gaiement</t>
+          <t>Journée_internationale_de_sensibilisation_au_bégaiement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ISAD organise une conférence en ligne[5],[6] et des événements publics, une campagne médiatique[7],[8],[9], des activités éducationnelles et le développement de ressources en ligne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ISAD organise une conférence en ligne, et des événements publics, une campagne médiatique des activités éducationnelles et le développement de ressources en ligne.
 </t>
         </is>
       </c>
